--- a/backend/uploads/samplen.xlsx
+++ b/backend/uploads/samplen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>First Name</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>https://www.acaitravel.com</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>jane.smith@advex.ai</t>
+  </si>
+  <si>
+    <t>https://www.advex.ai</t>
   </si>
 </sst>
 </file>
@@ -371,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -405,6 +417,20 @@
       </c>
       <c r="D2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
